--- a/Final Aspen and Visio Files/Final_Equipment_List.xlsx
+++ b/Final Aspen and Visio Files/Final_Equipment_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luhao\ChemE485\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED2D5517-86F4-444B-8535-5C9BDA81BB76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4C0A38-2C51-483B-B9A5-1609F947CE34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>H-601 Reactor Feed Preheater</t>
   </si>
   <si>
-    <t xml:space="preserve">             5400MJ/h (maximum)</t>
-  </si>
-  <si>
     <t>Operating Pressure         = 3.58 bar (normal)</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>Operating Temperature = 545 °C (maximum)</t>
   </si>
   <si>
-    <t>Duty = 4050 MJ/h (normal)</t>
-  </si>
-  <si>
     <t>R-601 Fluidized Bed Reactor</t>
   </si>
   <si>
@@ -159,12 +153,6 @@
     <t>Operating Temperature = 400 °C (maximum)</t>
   </si>
   <si>
-    <t>Duty = 2188 MJ/h</t>
-  </si>
-  <si>
-    <t>Heat Transfer Area = 2.6 m^2</t>
-  </si>
-  <si>
     <t>E-602 Wasteheat Boiler</t>
   </si>
   <si>
@@ -177,24 +165,12 @@
     <t>Operating Pressure = 8.0 bar (maximum)</t>
   </si>
   <si>
-    <t>Duty = 2870 MJ/h</t>
-  </si>
-  <si>
-    <t>Heat Transfer Area = 53.2 m^2</t>
-  </si>
-  <si>
     <t>E-603 Crude Allyl Chloride Cooler</t>
   </si>
   <si>
     <t>Operating Pressure = 5.0 bar (maximum)</t>
   </si>
   <si>
-    <t>Duty = 1040 MJ/h</t>
-  </si>
-  <si>
-    <t>Heat Transfer Area = 53.7 m^2</t>
-  </si>
-  <si>
     <t>Double-pipe exchanger, Dowtherm in inner tube</t>
   </si>
   <si>
@@ -519,13 +495,37 @@
     <t>Duty = 2288 MJ/h</t>
   </si>
   <si>
-    <t xml:space="preserve">Heat Transfer Area =42.2 m^2 </t>
-  </si>
-  <si>
     <t>Power Requirement: 175 kW</t>
   </si>
   <si>
     <t>Power Requirement: 254 kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heat Transfer Area = 42.2 m^2 </t>
+  </si>
+  <si>
+    <t>Duty = 8100 MJ/h (normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             10800 MJ/h (maximum)</t>
+  </si>
+  <si>
+    <t>Duty = 4376 MJ/h</t>
+  </si>
+  <si>
+    <t>Heat Transfer Area = 5.2 m^2</t>
+  </si>
+  <si>
+    <t>Duty = 5740 MJ/h</t>
+  </si>
+  <si>
+    <t>Duty = 2080 MJ/h</t>
+  </si>
+  <si>
+    <t>Heat Transfer Area = 106.4 m^2</t>
+  </si>
+  <si>
+    <t>Heat Transfer Area = 107.4 m^2</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1208,7 @@
   <dimension ref="A2:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1220,136 +1220,136 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1357,64 +1357,64 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1435,153 +1435,153 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
         <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
         <v>57</v>
-      </c>
-      <c r="F7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
         <v>60</v>
-      </c>
-      <c r="F12" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1602,146 +1602,146 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1755,249 +1755,249 @@
   <dimension ref="A2:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F21" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F23" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F24" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F27" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F29" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F30" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F33" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F34" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F35" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F36" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2018,119 +2018,119 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2151,67 +2151,67 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Final Aspen and Visio Files/Final_Equipment_List.xlsx
+++ b/Final Aspen and Visio Files/Final_Equipment_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luhao\ChemE485\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4C0A38-2C51-483B-B9A5-1609F947CE34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5534B5-907D-46E0-8397-8E3D59C535A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Streams-Reactor" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="164">
   <si>
     <t>Pressure (bar)</t>
   </si>
@@ -526,6 +526,9 @@
   </si>
   <si>
     <t>Heat Transfer Area = 107.4 m^2</t>
+  </si>
+  <si>
+    <t>Carbon Steel</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -2143,8 +2146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F834D02-6E42-4D69-B72C-FE77E91C1498}">
   <dimension ref="A2:A15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2156,7 +2159,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
@@ -2191,7 +2194,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">

--- a/Final Aspen and Visio Files/Final_Equipment_List.xlsx
+++ b/Final Aspen and Visio Files/Final_Equipment_List.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luhao\ChemE485\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5534B5-907D-46E0-8397-8E3D59C535A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD6B419-51FF-41DA-8A12-C4B9E95D4258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Streams-Reactor" sheetId="1" r:id="rId1"/>
-    <sheet name="Equipment-ReactorSection" sheetId="2" r:id="rId2"/>
-    <sheet name="Equipment-Vessels" sheetId="3" r:id="rId3"/>
-    <sheet name="Equipment-Towers" sheetId="4" r:id="rId4"/>
-    <sheet name="Equipment-Exchangers" sheetId="5" r:id="rId5"/>
-    <sheet name="Equipment-Pumps" sheetId="6" r:id="rId6"/>
-    <sheet name="Equipment-Compressors" sheetId="7" r:id="rId7"/>
+    <sheet name="Equipment-ReactorSection" sheetId="2" r:id="rId1"/>
+    <sheet name="Fired Heaters" sheetId="8" r:id="rId2"/>
+    <sheet name="Vessels and Drums" sheetId="3" r:id="rId3"/>
+    <sheet name="Towers" sheetId="4" r:id="rId4"/>
+    <sheet name="Heat Exchangers" sheetId="5" r:id="rId5"/>
+    <sheet name="Pumps" sheetId="6" r:id="rId6"/>
+    <sheet name="Compressors" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,43 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="164">
-  <si>
-    <t>Pressure (bar)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperature (C) </t>
-  </si>
-  <si>
-    <t>Flow (kmol/hr)</t>
-  </si>
-  <si>
-    <t>2-chloropropene</t>
-  </si>
-  <si>
-    <t>Vapor Fraction</t>
-  </si>
-  <si>
-    <t>Stream</t>
-  </si>
-  <si>
-    <t>Hydrogen chloride</t>
-  </si>
-  <si>
-    <t>Dicholopropene</t>
-  </si>
-  <si>
-    <t>Allyl chloride</t>
-  </si>
-  <si>
-    <t>Chlorine</t>
-  </si>
-  <si>
-    <t>Propylene</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="154">
   <si>
     <t>H-601 Reactor Feed Preheater</t>
   </si>
@@ -156,21 +120,9 @@
     <t>E-602 Wasteheat Boiler</t>
   </si>
   <si>
-    <t>Tube Side</t>
-  </si>
-  <si>
-    <t>Shell Side</t>
-  </si>
-  <si>
-    <t>Operating Pressure = 8.0 bar (maximum)</t>
-  </si>
-  <si>
     <t>E-603 Crude Allyl Chloride Cooler</t>
   </si>
   <si>
-    <t>Operating Pressure = 5.0 bar (maximum)</t>
-  </si>
-  <si>
     <t>Double-pipe exchanger, Dowtherm in inner tube</t>
   </si>
   <si>
@@ -288,15 +240,6 @@
     <t>Ultility: Cooling Water</t>
   </si>
   <si>
-    <t>Operating Pressure = 3.5 bar (maximum)</t>
-  </si>
-  <si>
-    <t>Power = 2 kW</t>
-  </si>
-  <si>
-    <t>Effeciency = 50% - 70%</t>
-  </si>
-  <si>
     <t>Centrifugal, Carbon Steel</t>
   </si>
   <si>
@@ -306,9 +249,6 @@
     <t>Centrifugal, Nickel-Copper Alloy</t>
   </si>
   <si>
-    <t>P-603A/B</t>
-  </si>
-  <si>
     <t>P-604 A/B</t>
   </si>
   <si>
@@ -390,21 +330,9 @@
     <t>E-604 Separation Pre-Cooler</t>
   </si>
   <si>
-    <t>Carbon Steel, Double-Pipe</t>
-  </si>
-  <si>
-    <t>Carbon Steel, Shell and Tube</t>
-  </si>
-  <si>
-    <t>Double-Pipe, Carbon Steel (Outer), Monel (Inner)</t>
-  </si>
-  <si>
     <t>E-607 HCl Absorber Preheater</t>
   </si>
   <si>
-    <t>Shell and Tube, Carbon Steel Shell, Monel Tube</t>
-  </si>
-  <si>
     <t>E-609 Second Propylene Cooler</t>
   </si>
   <si>
@@ -529,15 +457,54 @@
   </si>
   <si>
     <t>Carbon Steel</t>
+  </si>
+  <si>
+    <t>Compressors</t>
+  </si>
+  <si>
+    <t>Pumps</t>
+  </si>
+  <si>
+    <t>Vessels and Drums</t>
+  </si>
+  <si>
+    <t>Towers</t>
+  </si>
+  <si>
+    <t>Fired Heaters</t>
+  </si>
+  <si>
+    <t>Ultility: Boiler Feed Water</t>
+  </si>
+  <si>
+    <t>Monel</t>
+  </si>
+  <si>
+    <t>Heat Exchangers</t>
+  </si>
+  <si>
+    <t>Utility: Cooling Water</t>
+  </si>
+  <si>
+    <t>Stainless Steel Tubes</t>
+  </si>
+  <si>
+    <t>Reactor Unit</t>
+  </si>
+  <si>
+    <t>Effeciency = 70%</t>
+  </si>
+  <si>
+    <t>Power = 2.86 kW</t>
+  </si>
+  <si>
+    <t>P-603 A/B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -571,7 +538,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -579,49 +546,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -901,304 +834,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5">
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>25</v>
-      </c>
-      <c r="C2" s="5">
-        <v>545</v>
-      </c>
-      <c r="D2" s="5">
-        <v>25</v>
-      </c>
-      <c r="E2" s="6">
-        <v>508.95710000000003</v>
-      </c>
-      <c r="F2" s="5">
-        <v>511</v>
-      </c>
-      <c r="G2" s="5">
-        <v>200</v>
-      </c>
-      <c r="H2" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5">
-        <v>11.7</v>
-      </c>
-      <c r="C3" s="5">
-        <v>3.24</v>
-      </c>
-      <c r="D3" s="5">
-        <v>6.44</v>
-      </c>
-      <c r="E3" s="5">
-        <v>3.04</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.27</v>
-      </c>
-      <c r="G3" s="5">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="F6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8">
-        <v>75.89</v>
-      </c>
-      <c r="C7" s="8">
-        <v>75.89</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>75.89</v>
-      </c>
-      <c r="F7" s="8">
-        <v>56.20787</v>
-      </c>
-      <c r="G7" s="8">
-        <v>56.20787</v>
-      </c>
-      <c r="H7" s="8">
-        <v>56.20787</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="8">
-        <v>19.7</v>
-      </c>
-      <c r="E8" s="8">
-        <v>19.7</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="8">
-        <v>18.22072</v>
-      </c>
-      <c r="G9" s="8">
-        <v>18.22072</v>
-      </c>
-      <c r="H9" s="8">
-        <v>18.22072</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1.4430670000000001</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1.4430670000000001</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1.4430670000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.83509E-2</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1.83509E-2</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1.83509E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="8">
-        <v>19.700489999999999</v>
-      </c>
-      <c r="G12" s="8">
-        <v>19.700489999999999</v>
-      </c>
-      <c r="H12" s="8">
-        <v>19.700489999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1207,217 +989,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97545AA-5BD9-4CDD-85E4-8B792D57541D}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="F2" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="F20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>33</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1428,163 +1048,166 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:F22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="F2" s="9" t="s">
-        <v>55</v>
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>34</v>
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>58</v>
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>34</v>
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>59</v>
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>34</v>
+        <v>50</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>34</v>
+      <c r="A21" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1595,156 +1218,159 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81921D1-4439-4B10-A213-9422975FC24A}">
-  <dimension ref="A2:E23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>67</v>
+      <c r="A2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>34</v>
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>76</v>
+      <c r="A10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>34</v>
+      <c r="A13" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>34</v>
+        <v>83</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>104</v>
+      <c r="A17" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>34</v>
+      <c r="A21" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1755,252 +1381,295 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81C6130-D684-413A-963E-616CB92BA76B}">
-  <dimension ref="A2:F36"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>127</v>
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>119</v>
+      <c r="A3" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" t="s">
         <v>130</v>
       </c>
-      <c r="F6" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>128</v>
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>117</v>
+      <c r="A9" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>77</v>
+      <c r="A14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>79</v>
+      <c r="A20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="F23" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="F24" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>81</v>
+      <c r="A26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="F27" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="F29" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="F30" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>126</v>
+      <c r="A32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="F33" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="F35" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="F36" t="s">
-        <v>148</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2011,129 +1680,134 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D65A67-9B02-4BA4-A827-F53FB1C770F5}">
-  <dimension ref="A2:E20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>92</v>
+      <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>93</v>
+      <c r="A7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>94</v>
+      <c r="A12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="9"/>
+      <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2144,77 +1818,87 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F834D02-6E42-4D69-B72C-FE77E91C1498}">
-  <dimension ref="A2:A15"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>111</v>
+      <c r="A2" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>112</v>
+      <c r="A10" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Final Aspen and Visio Files/Final_Equipment_List.xlsx
+++ b/Final Aspen and Visio Files/Final_Equipment_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luhao\ChemE485\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD6B419-51FF-41DA-8A12-C4B9E95D4258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C11FFE4-597C-41F8-B1DB-8C9B7D24BD92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipment-ReactorSection" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="153">
   <si>
     <t>H-601 Reactor Feed Preheater</t>
   </si>
@@ -99,9 +99,6 @@
     <t>ΔP (maximum) = 2.06 bar</t>
   </si>
   <si>
-    <t>Power (motor) = 2.5kW</t>
-  </si>
-  <si>
     <t>Flowrate = 0.0068 m^3/s (normal)</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>T-604 Chloropropene Tower</t>
   </si>
   <si>
-    <t>Stainless Steel</t>
-  </si>
-  <si>
     <t>60 Stainless Steel Sieve Trays</t>
   </si>
   <si>
@@ -438,12 +432,6 @@
     <t xml:space="preserve">             10800 MJ/h (maximum)</t>
   </si>
   <si>
-    <t>Duty = 4376 MJ/h</t>
-  </si>
-  <si>
-    <t>Heat Transfer Area = 5.2 m^2</t>
-  </si>
-  <si>
     <t>Duty = 5740 MJ/h</t>
   </si>
   <si>
@@ -477,9 +465,6 @@
     <t>Ultility: Boiler Feed Water</t>
   </si>
   <si>
-    <t>Monel</t>
-  </si>
-  <si>
     <t>Heat Exchangers</t>
   </si>
   <si>
@@ -499,6 +484,18 @@
   </si>
   <si>
     <t>P-603 A/B</t>
+  </si>
+  <si>
+    <t>Power (motor) = 2.5 kW</t>
+  </si>
+  <si>
+    <t>Heat Transfer Area = 5.4 m^2</t>
+  </si>
+  <si>
+    <t>Duty = 4400 MJ/h</t>
+  </si>
+  <si>
+    <t>Monel/Carbon Steel</t>
   </si>
 </sst>
 </file>
@@ -550,11 +547,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,14 +834,14 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -855,7 +851,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -871,7 +867,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -879,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -887,15 +883,15 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -903,7 +899,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -973,13 +969,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +996,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1012,17 +1008,17 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1056,158 +1052,158 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1226,151 +1222,151 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1383,293 +1379,295 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81C6130-D684-413A-963E-616CB92BA76B}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>52</v>
+      <c r="A3" t="s">
+        <v>152</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>52</v>
+      <c r="A9" t="s">
+        <v>152</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="F21" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F27" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F33" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F39" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1690,124 +1688,124 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E15" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1820,7 +1818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F834D02-6E42-4D69-B72C-FE77E91C1498}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
@@ -1828,77 +1826,77 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Final Aspen and Visio Files/Final_Equipment_List.xlsx
+++ b/Final Aspen and Visio Files/Final_Equipment_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luhao\ChemE485\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C11FFE4-597C-41F8-B1DB-8C9B7D24BD92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB28A21-E190-4802-98BC-88C07585721B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipment-ReactorSection" sheetId="2" r:id="rId1"/>
@@ -447,7 +447,7 @@
     <t>Carbon Steel</t>
   </si>
   <si>
-    <t>Compressors</t>
+    <t>Compressors and Drives</t>
   </si>
   <si>
     <t>Pumps</t>
@@ -535,7 +535,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -543,14 +543,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,152 +924,345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -986,55 +1272,137 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97545AA-5BD9-4CDD-85E4-8B792D57541D}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1044,167 +1412,365 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F10" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F11" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F12" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F14" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F17" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F18" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F19" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F21" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1214,160 +1780,371 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B81921D1-4439-4B10-A213-9422975FC24A}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E7" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E8" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E11" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E12" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E13" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E15" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E16" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
         <v>78</v>
       </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1377,298 +2154,671 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81C6130-D684-413A-963E-616CB92BA76B}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F6" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="F9" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="F10" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F11" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F12" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>94</v>
       </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="F15" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F16" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F17" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F18" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>98</v>
       </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="F21" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F22" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F23" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F24" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>99</v>
       </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
       <c r="F26" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="F27" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F28" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F29" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F30" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
         <v>95</v>
       </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
       <c r="F32" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="F33" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F34" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F35" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F36" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="9"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
         <v>97</v>
       </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
       <c r="F38" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F39" t="s">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F40" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F41" t="s">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F42" t="s">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1678,135 +2828,323 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D65A67-9B02-4BA4-A827-F53FB1C770F5}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E8" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E9" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E10" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E13" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E14" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E15" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>69</v>
       </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>146</v>
       </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1816,88 +3154,259 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F834D02-6E42-4D69-B72C-FE77E91C1498}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="14" t="s">
         <v>91</v>
       </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
